--- a/output/date/2022-01-12/2022-01-12_방향제.xlsx
+++ b/output/date/2022-01-12/2022-01-12_방향제.xlsx
@@ -703,22 +703,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
+          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>18900</t>
+          <t>46500</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -734,14 +734,10 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>에이비</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>에이비</t>
-        </is>
-      </c>
+          <t>카보노</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -769,22 +765,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>카보노 대쉬보드 거치형 프리미엄 차량용 방향제</t>
+          <t>에이비 큐빅베어브릭 차량용 방향제 차방향제 벤츠 BMW 디퓨저 고급 AB-DF02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25371363986</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27944185800</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2537136/25371363986.20220104014030.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2794418/27944185800.20210929135132.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>46500</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -800,10 +796,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>카보노</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -963,22 +963,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
+          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>37700</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -994,10 +994,14 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>루크타</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>JW중외제약</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>JW중외제약</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1025,22 +1029,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>JW중외제약 피톤치드 차량용 방향제 피톤케어</t>
+          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12916212027</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1291621/12916212027.20211116115126.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>37700</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1056,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1091,17 +1095,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>디프로젝트 디불 불독 차량용방향제 자동차 디퓨저 DP-DBL01</t>
+          <t>루크타 도베르만 차량용 자동차 송풍구 차 고급 방향제 디퓨저 LT-DB01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=13697148540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25380843939</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1369714/13697148540.20211222172941.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2538084/25380843939.20211029114127.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1122,14 +1126,10 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>루크타</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1285,22 +1285,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
+          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28000</t>
+          <t>13000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>에이비</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1351,22 +1351,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>디프로젝트 리필킷 디불 디버니 디릴라고 차량용방향제 자동차 디퓨저 고체 리필 DP-RF02</t>
+          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18367838563</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1836783/18367838563.20211108142647.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>13000</t>
+          <t>4860</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1380,16 +1380,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1417,22 +1409,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
+          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>32120</t>
+          <t>7540</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1448,12 +1440,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>언더스코어</t>
+          <t>불스원</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1483,22 +1475,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 차량용 방향제 리필</t>
+          <t>에이비 차량용 방향제 도베르만 고급 AB-DF04</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10149695240</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30317520568</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1014969/10149695240.20201014180005.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3031752/30317520568.20220110102207.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4860</t>
+          <t>28000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1512,8 +1504,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>에이비</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>불스원 그라스 디퓨저 105ml 블랙베리 체리 방향제</t>
+          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26677172452</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2667717/26677172452.20210407202430.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7550</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -1572,14 +1572,10 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>불스원</t>
-        </is>
-      </c>
+          <t>플래트</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1607,22 +1603,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>플래트 고급 프로펠러 차량용 방향제 F430</t>
+          <t>언더스코어 오버라인 오버타이거 호랑이 퓨마 차량용 방향제 자동차 디퓨저 OL-CFOT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27806043522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30404262618</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2780604/27806043522.20210701115440.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3040426/30404262618.20220103184026.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>32120</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1638,10 +1634,14 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>플래트</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -1863,22 +1863,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
+          <t>카늘 글래디에이터 차량용 방향제</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1892,7 +1892,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>카늘</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1921,22 +1925,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>카늘 글래디에이터 차량용 방향제</t>
+          <t>메탈아이원 차량용방향제 고급 송풍구방향제 홀더 향스틱2P</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20826026697</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27657435982</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2082602/20826026697.20210217230953.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2765743/27657435982.20210620214337.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1950,11 +1954,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>카늘</t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
@@ -1983,22 +1983,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
+          <t>차바치 씨스톤 차량용 방향제</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>24900</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -2012,7 +2012,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>차바치</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -2041,22 +2045,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>차바치 씨스톤 차량용 방향제</t>
+          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21337624052</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2133762/21337624052.20191119171610.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>24900</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2072,7 +2076,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>차바치</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2103,22 +2107,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>양키캔들 차량용방향제 카자얼티메이트 10g 클린코튼</t>
+          <t>DIPTYQUE 딥디크 차량용 방향제 리필 캡슐 케이스</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28974434758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30306912853</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2897443/28974434758.20211222174413.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030691/30306912853.20211226224634.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2132,11 +2136,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -2231,22 +2231,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
+          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14630</t>
+          <t>48760</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2260,8 +2260,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>제로스킨</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2289,22 +2297,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
+          <t>딥티크 차량용 방향제 리필 9종류향</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27990</t>
+          <t>37500</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -2320,12 +2328,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>플레이위드센트</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>엘에스인터내셔널</t>
+          <t>딥티크</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2355,22 +2363,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>딥티크 차량용 방향제 리필 9종류향</t>
+          <t>아우라 카카오 모니터걸이형 방향제 라이언 블루스카이향 10g x1개</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27604493058</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24014062100</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2760449/27604493058.20210617024518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2401406/24014062100.20200903003222.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>37500</t>
+          <t>14630</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -2384,16 +2392,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>딥티크</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2483,22 +2483,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>제로스킨 로보트 태권브이 차량용 방향제 자동차 디퓨저 AD-KF90</t>
+          <t>엘에스인터내셔널 플레이위드센트 사슴 차량용 방향제</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29535937618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28125690522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953593/29535937618.20211216102403.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2812569/28125690522.20211105172954.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>48760</t>
+          <t>27990</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -2514,12 +2514,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>플레이위드센트</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>제로스킨</t>
+          <t>엘에스인터내셔널</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2549,22 +2549,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
+          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>13890</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -2580,14 +2580,10 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+          <t>아우라</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2615,22 +2611,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
+          <t>리틀트리 걸이형 종이 방향제</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>35000</t>
+          <t>830</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -2644,16 +2640,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>훠링</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2681,22 +2669,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>아우라 카카오 어피치 모니터걸이형 방향제 4.5ml</t>
+          <t>훠링 하이센트 차량용 방향제 컵홀더형 95g</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26955394520</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26601404523</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2695539/26955394520.20210428203230.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2660140/26601404523.20210420172441.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>13890</t>
+          <t>35000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2712,10 +2700,14 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>아우라</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr"/>
+          <t>훠링</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>훠링</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2801,22 +2793,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>리틀트리 걸이형 종이 방향제</t>
+          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=7162545992</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_7162545/7162545992.20190731170829.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>10300</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -2830,8 +2822,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>쿤달</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>리빙인아로마</t>
+        </is>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -2917,22 +2917,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>리빙인아로마 쿤달 퍼퓸 차량용 디퓨저 2구 세트 블랙체리</t>
+          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24803290609</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2480329/24803290609.20211223022852.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10300</t>
+          <t>2150</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>쿤달</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>리빙인아로마</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2983,22 +2983,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
+          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13990</t>
+          <t>6900</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>에이센트</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -3045,22 +3045,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>에이센트 네이처 차량용 디퓨저 방향제 120ml</t>
+          <t>카카오프렌즈 차량용방향제 통풍구형 라이언 어피치</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27334130786</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045761869</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2733413/27334130786.20211216041142.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404576/24045761869.20210928022130.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6900</t>
+          <t>13990</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>에이센트</t>
+          <t>카카오프렌즈</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -3165,22 +3165,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
+          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>39000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -3194,16 +3194,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>디프로젝트</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3231,22 +3223,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>양키캔들 벤트스틱 차량용 방향제 4P입</t>
+          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=6552648097</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_6552648/6552648097.20190731160942.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -3262,12 +3254,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>양키캔들</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3297,37 +3289,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FYC 고급 명품 불독 차량용 방향제 디퓨저</t>
+          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24941672502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2494167/24941672502.20201122175400.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>39000</t>
+          <t>27840</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>딥티크</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3355,43 +3355,43 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>(리본끈+쇼핑백)딥디크 차량용 명품 고급 딥티크 방향제 디퓨저 리필향 9종 및 세트</t>
+          <t>디프로젝트 디버니 토끼 차량용방향제 자동차 디퓨저 DP-DBN02</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82298466138</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27331951522</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8229846/82298466138.7.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2733195/27331951522.20211222172819.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>27840</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>딥티크</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3421,22 +3421,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 차량용 방향제 리필 도자기</t>
+          <t>디프로젝트 디릴라고 고릴라 차량용방향제 자동차 디퓨저 DP-DRL03</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20347407194</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=26801331279</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2034740/20347407194.20211001120304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2680133/26801331279.20211222172904.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -3452,12 +3452,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>도슈아</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>제이엠제이라인</t>
+          <t>디프로젝트</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3685,22 +3685,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
+          <t>캘리포니아센트 캔타입 방향제 15종</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>3270</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -3743,22 +3743,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>캘리포니아센트 캔타입 방향제 15종</t>
+          <t>차량용 디퓨저 gv80 사각 송풍구 클립 네발 석고 방향제</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27414604011</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28685666448</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2741460/27414604011.20210602231933.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2868566/28685666448.20210902222527.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -3801,22 +3801,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
+          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>33000</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -3830,16 +3830,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3867,41 +3859,41 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
+          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>메이튼</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>메이튼</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>에너자이저</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3929,37 +3921,45 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
+          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>5500</t>
+          <t>11900</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>메무아</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>뷰센트</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>KAN</t>
+        </is>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -3987,22 +3987,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>에너자이저 캘리포니아센트 방향제 코로나도 체리향 1개</t>
+          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29022166369</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2902216/29022166369.20210929024636.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>1700</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -4016,10 +4016,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>스너글</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>에너자이저</t>
+          <t>유니레버</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4049,22 +4053,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>유니레버 스너글 곰돌이 방향제 21g 5종 3개입</t>
+          <t>조말론 차량용 방향제 센트 투 고 잉글리쉬 페어 앤 프리지아</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28658857392</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25503166629</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2865885/28658857392.20210831223854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2550316/25503166629.20211225025210.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>33000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -4080,12 +4084,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>스너글</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>유니레버</t>
+          <t>조말론</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4115,22 +4119,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KAN 뷰센트 De.Line 차량용 방향제 싱글세트</t>
+          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18985549503</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1898554/18985549503.20210713121106.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>34700</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -4144,16 +4148,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>뷰센트</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>KAN</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4181,33 +4177,33 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>쓰리나인 이니셜 커스텀 차량용 방향제 수제 송풍구 차 자동차 이색선물 기념일</t>
+          <t>뽀글이 부클 곰돌이 차량용 석고 방향제</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29539346631</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=81536224875</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2953934/29539346631.20211105043518.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8153622/81536224875.1.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>34700</t>
+          <t>5500</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메무아</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -4239,36 +4235,40 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>미스터앤미세스 체사레 시저 차량용 방향제</t>
+          <t>메이튼 십이지신 갓타이거 호랑이 차량용 방향제 차방향제 자동차 디퓨저 M-DF03</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8119194241</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83200800540</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8119194/8119194241.20190802121728.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8320080/83200800540.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>22000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>메이튼</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>메이튼</t>
+        </is>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -4297,22 +4297,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
+          <t>피오나겔 복숭아 방향제</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27305478364</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2730547/27305478364.20210525235112.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>930</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -4326,16 +4326,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>마일론</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>명품고급디퓨저</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4363,22 +4355,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>피오나겔 복숭아 방향제</t>
+          <t>지엠지모터스 더라이더 디퓨저</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27305478364</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2730547/27305478364.20210525235112.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>27800</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -4392,8 +4384,16 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>지엠지모터스</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4421,22 +4421,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>지엠지모터스 더라이더 디퓨저</t>
+          <t>명품고급디퓨저 마일론 갤러리1 차량용 방향제 MGAL-01</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21538184583</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30352215619</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2153818/21538184583.20210325121809.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3035221/30352215619.20220102155103.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>27800</t>
+          <t>49000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>지엠지모터스</t>
+          <t>마일론</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>지엠지모터스</t>
+          <t>명품고급디퓨저</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4487,22 +4487,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
+          <t>잠자는 강아지인형 숯먹은 강아지 탈취제 방향제</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24045215525</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2404521/24045215525.20200904192719.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -4545,22 +4545,22 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>더드림 크리스마스 베어 방향제</t>
+          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11000</t>
+          <t>29730</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -4576,12 +4576,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>도슈아</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>더드림</t>
+          <t>제이엠제이라인</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>잠자는 강아지인형 숯먹은 강아지 탈취제 방향제</t>
+          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24045215525</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2404521/24045215525.20200904192719.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>8730</t>
+          <t>8110</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -4640,7 +4640,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr"/>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>불스원</t>
+        </is>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -4669,22 +4673,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>제이엠제이라인 도슈아 클래식 프리미엄 차량용 방향제</t>
+          <t>엠퓨처 불독 차량용 방향제 디퓨저 MF-CAF02</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=17787594512</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30458791731</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1778759/17787594512.20210802225254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3045879/30458791731.20220107233129.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>29750</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -4698,16 +4702,8 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>도슈아</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>제이엠제이라인</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4735,22 +4731,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>불스원 GRASSE 그라스 디퓨저 방향제</t>
+          <t>더드림 크리스마스 베어 방향제</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073924737</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30394934683</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407392/24073924737.20200907231547.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3039493/30394934683.20220103000148.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>8120</t>
+          <t>11000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -4766,10 +4762,14 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>불스원</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr"/>
+          <t>더드림</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>더드림</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -4797,22 +4797,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
+          <t>쿤달 디퓨저 새차선물 방향제</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>11490</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -4826,7 +4826,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>쿤달</t>
+        </is>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -4979,22 +4983,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>쿤달 디퓨저 새차선물 방향제</t>
+          <t>칠라릴라 크롬블랙 차량용 자동차 방향제 고급 디퓨저</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27074544271</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28621039462</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2707454/27074544271.20220112014738.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2862103/28621039462.20211108103254.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>11490</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -5008,11 +5012,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>쿤달</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -5099,22 +5099,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>다다아이엔티 허브타임 라비에 리필용 방향제 120ml</t>
+          <t>양키캔들 카자 3개입 차량용 종이방향제</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=8549499783</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24030918060</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8549499/8549499783.20190805153250.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2403091/24030918060.20200904000428.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13500</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -5130,14 +5130,10 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>허브타임</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>다다아이엔티</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5165,36 +5161,40 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
+          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>16900</t>
+          <t>21500</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>ZENZEN MARKET</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -5223,45 +5223,37 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>언더스코어 오버리트리버 차량용 방향제</t>
+          <t>카카오프렌즈 라이언 어피치 모니터걸이 모니터걸이형 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30272149758</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83484034800</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3027214/30272149758.20211224002351.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8348403/83484034800.1.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>36500</t>
+          <t>16900</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>ZENZEN MARKET</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>언더스코어</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5289,22 +5281,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>산도깨비 차량용 멤브렌 리필 방향제 x 10개입 휘튼치드</t>
+          <t>언더스코어 오버리트리버 차량용 방향제</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25695237598</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30272149758</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2569523/25695237598.20211215041018.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3027214/30272149758.20211224002351.jpg</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>21500</t>
+          <t>36500</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -5320,10 +5312,14 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr"/>
+          <t>언더스코어</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>언더스코어</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5351,45 +5347,37 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
+          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>48500</t>
+          <t>19800</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>홍콩걸즈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5417,37 +5405,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>포포베 차량용방향제 자동차 디퓨저 선물 패키지</t>
+          <t>조말론 센트투고 차량방향제 자동차 쇼핑백 기본리본포장</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30238144502</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83296295354</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3023814/30238144502.20211222050944.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8329629/83296295354.2.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>19800</t>
+          <t>49900</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>더딥스토어</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5475,41 +5471,45 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>양키캔들 카자 3개입 차량용 종이방향제</t>
+          <t>조말론 차량용 방향제 센트투고 명품향수 고급 디퓨저 거치대</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24030918060</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83025886866</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2403091/24030918060.20200904000428.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302588/83025886866.4.jpg</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3910</t>
+          <t>48500</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>홍콩걸즈</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr"/>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>조말론</t>
+        </is>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -5657,22 +5657,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>블랑16 천연 자동차 디퓨저 냄새제거</t>
+          <t>엠블럼 스누피 방향제</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25146212346</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2514621/25146212346.20201208222311.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>9880</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -5686,11 +5686,7 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>블랑16</t>
-        </is>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -5719,40 +5715,36 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
+          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>9900</t>
+          <t>7200</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>반도향기나라</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>조이오퓨저</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -5843,40 +5835,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
+          <t>인비저블 방향제 차량용 송풍구 일체형</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24445209070</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2444520/24445209070.20201013225708.jpg</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>38540</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>the슈필라움</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>조말론</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -5905,22 +5893,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>엠블럼 스누피 방향제</t>
+          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=25645224899</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2564522/25645224899.20211028043708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9880</t>
+          <t>30310</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -5934,7 +5922,11 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>포맨트</t>
+        </is>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -5963,28 +5955,28 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>미스터앤미세스 니키 본품/리필 차량용 방향제</t>
+          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=10017842540</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1001784/10017842540.12.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7200</t>
+          <t>23900</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>반도향기나라</t>
+          <t>주네트</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5992,8 +5984,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>엘지생활건강</t>
+        </is>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6021,28 +6021,28 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>카카오프렌즈 어피치 라이언 모니터 네비게이션 걸이형 방향제</t>
+          <t>조말론 차량용 방향제 센트 투 고 고급 명품 디퓨저 and 거치대 석고방향제</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82953307035</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82623141464</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8295330/82953307035.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8262314/82623141464.2.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>23900</t>
+          <t>38540</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>주네트</t>
+          <t>the슈필라움</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6052,14 +6052,10 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>엘지생활건강</t>
-        </is>
-      </c>
+          <t>조말론</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6087,33 +6083,33 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>캐릭터 오리 그네 석고 차량용 방향제 자동차 차량 디퓨저</t>
+          <t>JK 크롬 베어브릭 차량용방향제 자동차 디퓨저 송풍구형</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83579983455</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29584087308</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8357998/83579983455.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2958408/29584087308.20211108030207.jpg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>4900</t>
+          <t>15900</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>담배가게 아저씨</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -6145,33 +6141,33 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>인비저블 방향제 차량용 송풍구 일체형</t>
+          <t>캐릭터 오리 그네 석고 차량용 방향제 자동차 차량 디퓨저</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24445209070</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83579983455</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2444520/24445209070.20201013225708.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8357998/83579983455.jpg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>8310</t>
+          <t>4900</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>담배가게 아저씨</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -6203,22 +6199,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
+          <t>조이오퓨저 오퓨저 가죽곰 가죽토끼 차량용 석고방향제 디퓨저 엠블럼 무료제작</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29908385702</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2990838/29908385702.20211201233207.jpg</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>9900</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -6234,7 +6230,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>카카오프렌즈</t>
+          <t>조이오퓨저</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -6265,22 +6261,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>포맨트 퍼퓸 썸퓨저 차량용 방향제</t>
+          <t>양키캔들 스마트 센트 벤트클립</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20901530534</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2090153/20901530534.20211028161645.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>30310</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -6296,7 +6292,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>포맨트</t>
+          <t>양키캔들</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -6327,45 +6323,41 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
+          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82123406483</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8212340/82123406483.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>4750</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>RAFFINEUR</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>라피네르</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>라피네르</t>
-        </is>
-      </c>
+          <t>양키캔들</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6393,22 +6385,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>양키캔들 스마트 센트 벤트클립</t>
+          <t>산도깨비 멤브렌 방향제 휘튼치트</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=18975414143</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30307277363</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1897541/18975414143.20190429160633.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3030727/30307277363.20211227004153.jpg</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>2280</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -6424,10 +6416,14 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr"/>
+          <t>산도깨비</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>산도깨비</t>
+        </is>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6455,43 +6451,43 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>피톤치드 편백 나무 방향제 향 천연 차량용 자동차 아로마 송풍구 디퓨저</t>
+          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=9501913801</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_9501913/9501913801.23.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>10900</t>
+          <t>7950</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>순수팜</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>순수팜</t>
+          <t>페브리즈</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>엠제이글로벌</t>
+          <t>P&amp;G</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6521,41 +6517,45 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>양키캔들 차밍센츠 고급 차량용 방향제 리필 16g</t>
+          <t>피톤치드 편백 나무 방향제 향 천연 차량용 자동차 아로마 송풍구 디퓨저</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24073000302</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=9501913801</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2407300/24073000302.20200907200512.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_9501913/9501913801.23.jpg</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>10900</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>순수팜</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>양키캔들</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr"/>
+          <t>순수팜</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>엠제이글로벌</t>
+        </is>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6583,22 +6583,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>산도깨비 멤브렌 방향제 휘튼치트</t>
+          <t>카카오프렌즈 모니터걸이 방향제 어피치+라이언</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30307277363</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=27139606827</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3030727/30307277363.20211227004153.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2713960/27139606827.20210513203418.jpg</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2280</t>
+          <t>32820</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -6614,14 +6614,10 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>산도깨비</t>
-        </is>
-      </c>
+          <t>카카오프렌즈</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>생활/건강</t>
@@ -6649,43 +6645,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>P&amp;amp;G 페브리즈 차량용 방향제 2.2ml 3개</t>
+          <t>라피네르 로얄스페이드 듀오 차량용방향제</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=20397190459</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82123406483</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2039719/20397190459.20190726113415.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8212340/82123406483.4.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>7950</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>RAFFINEUR</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>페브리즈</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>P&amp;G</t>
+          <t>라피네르</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
